--- a/data/synthetic/Khalid_Ibrahim_Al-Dhaheri/assets_liabilities.xlsx
+++ b/data/synthetic/Khalid_Ibrahim_Al-Dhaheri/assets_liabilities.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>As of: 28-Jan-2026</t>
+          <t>As of: 31-Jan-2026</t>
         </is>
       </c>
     </row>

--- a/data/synthetic/Khalid_Ibrahim_Al-Dhaheri/assets_liabilities.xlsx
+++ b/data/synthetic/Khalid_Ibrahim_Al-Dhaheri/assets_liabilities.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>As of: 31-Jan-2026</t>
+          <t>As of: 01-Feb-2026</t>
         </is>
       </c>
     </row>
